--- a/tests/Templates/tLists1_cell_setting.xlsx
+++ b/tests/Templates/tLists1_cell_setting.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ЭтаКнига"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sources\asr\ClosedXML.Report\tests\Templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="615" windowWidth="17400" windowHeight="11460"/>
   </bookViews>
@@ -22,7 +27,7 @@
     <author>user</author>
   </authors>
   <commentList>
-    <comment ref="J12" authorId="0">
+    <comment ref="J12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -38,7 +43,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B16" authorId="0">
+    <comment ref="B16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Address</t>
   </si>
@@ -176,16 +181,19 @@
   </si>
   <si>
     <t>Cash</t>
+  </si>
+  <si>
+    <t>&lt;&lt;sort&gt;&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -598,6 +606,14 @@
       <color rgb="FF9F7CFF"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -993,7 +1009,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1001,10 +1017,10 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.1640625" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
@@ -1019,7 +1035,7 @@
     <col min="12" max="12" width="7.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="51" customHeight="1">
+    <row r="1" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="42" t="s">
         <v>34</v>
@@ -1034,7 +1050,7 @@
       <c r="J1" s="43"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" ht="12.75">
+    <row r="2" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1052,7 +1068,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="18">
+    <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="24" t="s">
         <v>8</v>
@@ -1072,7 +1088,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="33"/>
       <c r="C4" s="23"/>
@@ -1088,7 +1104,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="24" t="s">
         <v>0</v>
@@ -1102,7 +1118,7 @@
       <c r="I5" s="19"/>
       <c r="K5" s="46"/>
     </row>
-    <row r="6" spans="1:12" ht="12">
+    <row r="6" spans="1:12" ht="12" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="35" t="s">
         <v>18</v>
@@ -1117,7 +1133,7 @@
       <c r="J6" s="9"/>
       <c r="K6" s="46"/>
     </row>
-    <row r="7" spans="1:12" ht="12">
+    <row r="7" spans="1:12" ht="12" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="25"/>
       <c r="C7" s="21"/>
@@ -1130,7 +1146,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="46"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="24" t="s">
         <v>1</v>
@@ -1150,7 +1166,7 @@
       </c>
       <c r="K8" s="46"/>
     </row>
-    <row r="9" spans="1:12" ht="12">
+    <row r="9" spans="1:12" ht="12" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="36" t="s">
         <v>19</v>
@@ -1171,7 +1187,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="46"/>
     </row>
-    <row r="10" spans="1:12" ht="12">
+    <row r="10" spans="1:12" ht="12" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="1"/>
       <c r="C10" s="5"/>
@@ -1184,7 +1200,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="46"/>
     </row>
-    <row r="11" spans="1:12" ht="22.5">
+    <row r="11" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="13" t="s">
         <v>7</v>
@@ -1215,7 +1231,7 @@
       </c>
       <c r="K11" s="46"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="45" t="s">
         <v>23</v>
@@ -1245,10 +1261,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="12">
+    <row r="13" spans="1:12" ht="12" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
+      <c r="C13" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
@@ -1257,7 +1275,7 @@
       <c r="I13" s="18"/>
       <c r="J13" s="17"/>
     </row>
-    <row r="14" spans="1:12" ht="12">
+    <row r="14" spans="1:12" ht="12" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1269,7 +1287,7 @@
       <c r="I14" s="15"/>
       <c r="J14" s="16"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="7" t="s">
         <v>4</v>
@@ -1278,7 +1296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="12">
+    <row r="16" spans="1:12" ht="12" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="41" t="s">
         <v>32</v>
@@ -1302,7 +1320,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Payment Method Validation" error="Wrong value.&#10;Allowed values: Visa, Credit, Cash" promptTitle="Payment Method" prompt="Allowed values: Visa, Credit, Cash" sqref="G12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Payment Method Validation" error="Wrong value._x000a_Allowed values: Visa, Credit, Cash" promptTitle="Payment Method" prompt="Allowed values: Visa, Credit, Cash" sqref="G12">
       <formula1>$L$2:$L$4</formula1>
     </dataValidation>
     <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Zip Validation" error="Zip must be between 5 and 6 letters" sqref="I9">
